--- a/Economics/Ljung_Box/First Difference/Ind_prod.xlsx
+++ b/Economics/Ljung_Box/First Difference/Ind_prod.xlsx
@@ -396,7 +396,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.491942314162548E-05</v>
+        <v>0.0235497847996603</v>
+      </c>
+      <c r="C2">
+        <v>0.8780360119258401</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -404,7 +407,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.1041637422749929</v>
+        <v>0.06772261518840927</v>
+      </c>
+      <c r="C3">
+        <v>0.9667055700615713</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -412,10 +418,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5.495178887655772</v>
+        <v>0.1431127756800873</v>
       </c>
       <c r="C4">
-        <v>0.01906897677147394</v>
+        <v>0.98620356468413</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -423,10 +429,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>5.496134463212622</v>
+        <v>0.1434922817410488</v>
       </c>
       <c r="C5">
-        <v>0.06405153843754478</v>
+        <v>0.9975461005907206</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -434,10 +440,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>6.105271315430759</v>
+        <v>0.4366556373613349</v>
       </c>
       <c r="C6">
-        <v>0.1065993745837306</v>
+        <v>0.9942595801565436</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -445,10 +451,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>7.030828358184896</v>
+        <v>0.6685400854725513</v>
       </c>
       <c r="C7">
-        <v>0.1342680287274481</v>
+        <v>0.9951450005715041</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -456,10 +462,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>7.327937921770675</v>
+        <v>1.083898638370698</v>
       </c>
       <c r="C8">
-        <v>0.1973710611606485</v>
+        <v>0.9933592721352227</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -467,10 +473,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>7.509877576046144</v>
+        <v>1.262325970308267</v>
       </c>
       <c r="C9">
-        <v>0.2762527104440185</v>
+        <v>0.9959871060237395</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -478,10 +484,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>8.390926945715826</v>
+        <v>2.398699838949786</v>
       </c>
       <c r="C10">
-        <v>0.2993870258146801</v>
+        <v>0.9834847956446399</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -489,10 +495,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>9.375004529823141</v>
+        <v>2.781237326949025</v>
       </c>
       <c r="C11">
-        <v>0.3116549526239581</v>
+        <v>0.9861137852491197</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -500,10 +506,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>10.74917720491436</v>
+        <v>3.379231717179351</v>
       </c>
       <c r="C12">
-        <v>0.2932941733276274</v>
+        <v>0.9847059035482822</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -511,10 +517,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>10.88901255952186</v>
+        <v>3.643882773117591</v>
       </c>
       <c r="C13">
-        <v>0.3662301367504502</v>
+        <v>0.989039646645367</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -522,10 +528,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>11.17067313772563</v>
+        <v>3.907859750747625</v>
       </c>
       <c r="C14">
-        <v>0.4290776521170035</v>
+        <v>0.9921325762130562</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -533,10 +539,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>11.17212008614458</v>
+        <v>3.912030756498956</v>
       </c>
       <c r="C15">
-        <v>0.5142284566516842</v>
+        <v>0.9959724729194266</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -544,10 +550,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>11.17253557522798</v>
+        <v>3.97773031789003</v>
       </c>
       <c r="C16">
-        <v>0.5963663115199167</v>
+        <v>0.9978093244721113</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -555,10 +561,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>11.50283094080902</v>
+        <v>4.14136329803923</v>
       </c>
       <c r="C17">
-        <v>0.6461613276605156</v>
+        <v>0.9986379525973484</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -566,10 +572,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>11.64426506885857</v>
+        <v>4.231675638754371</v>
       </c>
       <c r="C18">
-        <v>0.7057312737885961</v>
+        <v>0.9992458547027387</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -577,10 +583,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>11.65047537871842</v>
+        <v>4.262620630450782</v>
       </c>
       <c r="C19">
-        <v>0.7676698512711648</v>
+        <v>0.9996251091939875</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -588,10 +594,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>12.47103557089321</v>
+        <v>4.665898015438045</v>
       </c>
       <c r="C20">
-        <v>0.7708138728283764</v>
+        <v>0.9996580966421069</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -599,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>12.47823640768264</v>
+        <v>4.668178017401648</v>
       </c>
       <c r="C21">
-        <v>0.8215903422348562</v>
+        <v>0.9998382281271055</v>
       </c>
     </row>
   </sheetData>
